--- a/result_times.xlsx
+++ b/result_times.xlsx
@@ -397,22 +397,22 @@
         <v>125</v>
       </c>
       <c r="B2">
-        <v>212.7859499995399</v>
+        <v>294.6371999999174</v>
       </c>
       <c r="C2">
-        <v>271.8886400001387</v>
+        <v>272.8195199997678</v>
       </c>
       <c r="D2">
-        <v>249.9121349994801</v>
+        <v>372.0210479998053</v>
       </c>
       <c r="E2">
-        <v>309.8964240004635</v>
+        <v>300.3421249999638</v>
       </c>
       <c r="F2">
-        <v>354.9814020002617</v>
+        <v>345.5461380004731</v>
       </c>
       <c r="G2">
-        <v>259.4599610000074</v>
+        <v>244.7842440001752</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -420,22 +420,22 @@
         <v>250</v>
       </c>
       <c r="B3">
-        <v>954.8681840014243</v>
+        <v>969.7016159973135</v>
       </c>
       <c r="C3">
-        <v>616.8159300004214</v>
+        <v>677.3085000008499</v>
       </c>
       <c r="D3">
-        <v>598.4687999994529</v>
+        <v>517.5497600012245</v>
       </c>
       <c r="E3">
-        <v>428.428754999417</v>
+        <v>410.6163040002449</v>
       </c>
       <c r="F3">
-        <v>345.9333539997085</v>
+        <v>352.4388659995032</v>
       </c>
       <c r="G3">
-        <v>400.3917499998122</v>
+        <v>541.9893380004695</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -443,22 +443,22 @@
         <v>500</v>
       </c>
       <c r="B4">
-        <v>6654.190548007512</v>
+        <v>7103.864060992436</v>
       </c>
       <c r="C4">
-        <v>3846.185985006304</v>
+        <v>3873.121910006681</v>
       </c>
       <c r="D4">
-        <v>2213.993068004087</v>
+        <v>2383.511547998404</v>
       </c>
       <c r="E4">
-        <v>1559.815515002634</v>
+        <v>1496.08792400197</v>
       </c>
       <c r="F4">
-        <v>1334.766063999739</v>
+        <v>1233.951435000872</v>
       </c>
       <c r="G4">
-        <v>1155.339980000175</v>
+        <v>1105.368210000246</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -466,22 +466,22 @@
         <v>1000</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>52461.55713610247</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>33082.99399000443</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>17742.37999801818</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>10646.65091201224</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>8889.518007999972</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>7925.778410995278</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -489,22 +489,22 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>618515.5716044453</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>332559.3483002737</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>144102.9589588658</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>99843.31481419047</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>64540.67867805008</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>52082.07614004445</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -512,22 +512,22 @@
         <v>4000</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>5321835.296485844</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2430041.704777659</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1204361.749123463</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>746743.2723119897</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>486119.0142094226</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>331498.7422571132</v>
       </c>
     </row>
   </sheetData>

--- a/result_times.xlsx
+++ b/result_times.xlsx
@@ -397,22 +397,22 @@
         <v>125</v>
       </c>
       <c r="B2">
-        <v>294.6371999999174</v>
+        <v>504.0917101002473</v>
       </c>
       <c r="C2">
-        <v>272.8195199997678</v>
+        <v>1175.658407133217</v>
       </c>
       <c r="D2">
-        <v>372.0210479998053</v>
+        <v>3213.360553189363</v>
       </c>
       <c r="E2">
-        <v>300.3421249999638</v>
+        <v>2945.674086392438</v>
       </c>
       <c r="F2">
-        <v>345.5461380004731</v>
+        <v>4367.956337906372</v>
       </c>
       <c r="G2">
-        <v>244.7842440001752</v>
+        <v>305218.9773588843</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -420,22 +420,22 @@
         <v>250</v>
       </c>
       <c r="B3">
-        <v>969.7016159973135</v>
+        <v>5775.079730809708</v>
       </c>
       <c r="C3">
-        <v>677.3085000008499</v>
+        <v>3505.530680209183</v>
       </c>
       <c r="D3">
-        <v>517.5497600012245</v>
+        <v>6380.947469590662</v>
       </c>
       <c r="E3">
-        <v>410.6163040002449</v>
+        <v>5000.586082200365</v>
       </c>
       <c r="F3">
-        <v>352.4388659995032</v>
+        <v>5730.180655971174</v>
       </c>
       <c r="G3">
-        <v>541.9893380004695</v>
+        <v>324708.4619499796</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -443,22 +443,22 @@
         <v>500</v>
       </c>
       <c r="B4">
-        <v>7103.864060992436</v>
+        <v>21452.48463151695</v>
       </c>
       <c r="C4">
-        <v>3873.121910006681</v>
+        <v>13731.31179563402</v>
       </c>
       <c r="D4">
-        <v>2383.511547998404</v>
+        <v>17537.02015549798</v>
       </c>
       <c r="E4">
-        <v>1496.08792400197</v>
+        <v>11571.14251442661</v>
       </c>
       <c r="F4">
-        <v>1233.951435000872</v>
+        <v>10636.88115278531</v>
       </c>
       <c r="G4">
-        <v>1105.368210000246</v>
+        <v>335862.2372309588</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -466,22 +466,22 @@
         <v>1000</v>
       </c>
       <c r="B5">
-        <v>52461.55713610247</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>33082.99399000443</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>17742.37999801818</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>10646.65091201224</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>8889.518007999972</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>7925.778410995278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -489,22 +489,22 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <v>618515.5716044453</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>332559.3483002737</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>144102.9589588658</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>99843.31481419047</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>64540.67867805008</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>52082.07614004445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -512,22 +512,22 @@
         <v>4000</v>
       </c>
       <c r="B7">
-        <v>5321835.296485844</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2430041.704777659</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1204361.749123463</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>746743.2723119897</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>486119.0142094226</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>331498.7422571132</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
